--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC6_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC6_TC1.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1872952725396275</v>
+        <v>0.1649495264898744</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3395178758176217</v>
+        <v>0.3069523248792008</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3395178758176217, 'ngram_match_score': 0.18729527253962752, 'weighted_ngram_match_score': 0.2595899810830713, 'syntax_match_score': 0.5207100591715976, 'dataflow_match_score': 0.3904761904761905}</t>
+          <t>{'codebleu': 0.30695232487920077, 'ngram_match_score': 0.1649495264898744, 'weighted_ngram_match_score': 0.2278639995696169, 'syntax_match_score': 0.5207100591715976, 'dataflow_match_score': 0.3142857142857143}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.6269196287002572</v>
+        <v>0.7330165494538073</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
